--- a/medicine/Pharmacie/Ove_Fernö/Ove_Fernö.xlsx
+++ b/medicine/Pharmacie/Ove_Fernö/Ove_Fernö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ove_Fern%C3%B6</t>
+          <t>Ove_Fernö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ove Fernö, chimiste suédois du laboratoire pharmaceutique suédois Leo Läkemedel AB (sv), né en 1916 à Gothenburg, est l’inventeur du substitut nicotinique ou traitement nicotinique de substitution[1],[2],[3].
-Il est mort à 91 ans en octobre 2007 à Helsingborg en Suède[3].
-Il était lui-même fumeur et persuadé que la nicotine était responsable de la dépendance au tabac et pas le tabac lui-même[1]. Il s’est inspiré en 1967 d’une idée de ses collègues Stefan Lichtneckert et Claes Lundgren de l'Institut de physiologie de l'Université de Lund[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ove Fernö, chimiste suédois du laboratoire pharmaceutique suédois Leo Läkemedel AB (sv), né en 1916 à Gothenburg, est l’inventeur du substitut nicotinique ou traitement nicotinique de substitution.
+Il est mort à 91 ans en octobre 2007 à Helsingborg en Suède.
+Il était lui-même fumeur et persuadé que la nicotine était responsable de la dépendance au tabac et pas le tabac lui-même. Il s’est inspiré en 1967 d’une idée de ses collègues Stefan Lichtneckert et Claes Lundgren de l'Institut de physiologie de l'Université de Lund.
 </t>
         </is>
       </c>
